--- a/PRO_28112023A/Templates/template.xlsx
+++ b/PRO_28112023A/Templates/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0. Trabajo\5. Independiente\Proameise\Proameise_28112023A\PRO_28112023A\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5. Independiente\Proameise\28112023-A\PRO_28112023A\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date//time produced part</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">Software of actuator </t>
-  </si>
-  <si>
-    <t>as</t>
   </si>
 </sst>
 </file>
@@ -492,133 +489,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T7"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PRO_28112023A/Templates/template.xlsx
+++ b/PRO_28112023A/Templates/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5. Independiente\Proameise\28112023-A\PRO_28112023A\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0. Trabajo\Proameise\PRO_28112023-A-AllenBradley\PRO_28112023A\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date//time produced part</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Software of actuator </t>
+  </si>
+  <si>
+    <t>General Judge</t>
   </si>
 </sst>
 </file>
@@ -489,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD13"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -546,8 +549,11 @@
       <c r="T1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="U1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -584,9 +590,11 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
